--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -182,7 +182,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF595959"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Sylfaen"/>
     </font>
   </fonts>
@@ -246,6 +246,9 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -253,9 +256,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -273,13 +273,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1009650" cy="1009650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 6" descr=""/>
+        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -303,13 +303,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1238250" cy="885825"/>
+    <xdr:ext cx="1247775" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 3" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -333,13 +333,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1009650" cy="1009650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="3" name="Picture 6" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -363,13 +363,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1238250" cy="885825"/>
+    <xdr:ext cx="1247775" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr=""/>
+        <xdr:cNvPr id="4" name="Picture 7" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -806,7 +806,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -903,7 +903,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -919,10 +919,10 @@
       <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" customHeight="1" ht="15.75">
@@ -937,10 +937,10 @@
       <c r="I13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" customHeight="1" ht="15.75">
@@ -979,11 +979,11 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
@@ -996,14 +996,14 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1029,21 +1029,21 @@
         <v>17</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="13"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" customHeight="1" ht="15.75">
       <c r="A20" s="1"/>
@@ -1065,21 +1065,21 @@
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="13"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" customHeight="1" ht="15.75">
       <c r="A22" s="1"/>
@@ -1148,12 +1148,12 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
@@ -1381,7 +1381,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1397,10 +1397,10 @@
       <c r="I49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="15" t="s">
+      <c r="J49" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="15"/>
+      <c r="K49" s="16"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" customHeight="1" ht="15.75">
@@ -1415,10 +1415,10 @@
       <c r="I50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="13"/>
+      <c r="K50" s="14"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" customHeight="1" ht="15.75">
@@ -1457,11 +1457,11 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="1" t="s">
         <v>14</v>
       </c>
@@ -1474,14 +1474,14 @@
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1507,21 +1507,21 @@
         <v>17</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="11"/>
       <c r="I56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="13" t="s">
+      <c r="K56" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="13"/>
+      <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:12" customHeight="1" ht="15.75">
       <c r="A57" s="1"/>
@@ -1543,21 +1543,21 @@
         <v>10</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L58" s="13"/>
+      <c r="L58" s="14"/>
     </row>
     <row r="59" spans="1:12" customHeight="1" ht="15.75">
       <c r="A59" s="1"/>
@@ -1626,12 +1626,12 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="13" t="s">
+      <c r="I63" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
     </row>
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
@@ -1778,12 +1778,16 @@
   </sheetData>
   <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="K56:L56"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="K58:L58"/>
     <mergeCell ref="I63:L63"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="D21:F21"/>
@@ -1792,10 +1796,6 @@
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="F53:H53"/>
     <mergeCell ref="C54:H54"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="K58:L58"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -44,13 +44,13 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-007</t>
+    <t>2020-005</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>May 04, 2020</t>
+    <t>April 29, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
@@ -65,25 +65,28 @@
     <t>purpose (s).</t>
   </si>
   <si>
-    <t>RO</t>
+    <t>asas</t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
+    <t>asasas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>May 01, 2020</t>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>April 30, 2020</t>
   </si>
   <si>
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>18:00:00</t>
+    <t>05:00:00</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -1030,18 +1033,18 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L19" s="14"/>
     </row>
@@ -1066,18 +1069,18 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="14"/>
     </row>
@@ -1119,7 +1122,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1158,7 +1161,7 @@
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1174,7 +1177,7 @@
     <row r="28" spans="1:12" customHeight="1" ht="15.75">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1205,11 +1208,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
       <c r="C30" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1229,7 +1232,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1259,7 +1262,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1275,7 +1278,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1284,7 +1287,7 @@
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1299,7 +1302,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1508,18 +1511,18 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="11"/>
       <c r="I56" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L56" s="14"/>
     </row>
@@ -1544,18 +1547,18 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L58" s="14"/>
     </row>
@@ -1597,7 +1600,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -1636,7 +1639,7 @@
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1652,7 +1655,7 @@
     <row r="65" spans="1:12" customHeight="1" ht="15.75">
       <c r="A65" s="1"/>
       <c r="B65" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1683,11 +1686,11 @@
       <c r="A67" s="1"/>
       <c r="B67" s="12"/>
       <c r="C67" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1707,7 +1710,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -1737,7 +1740,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -1753,7 +1756,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -1762,7 +1765,7 @@
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -44,13 +44,13 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-005</t>
+    <t>2020-007</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>April 29, 2020</t>
+    <t>May 04, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
@@ -65,28 +65,25 @@
     <t>purpose (s).</t>
   </si>
   <si>
-    <t>asas</t>
+    <t>RO</t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
-    <t>asasas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>April 30, 2020</t>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>May 01, 2020</t>
   </si>
   <si>
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>05:00:00</t>
+    <t>18:00:00</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -1033,18 +1030,18 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L19" s="14"/>
     </row>
@@ -1069,18 +1066,18 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="14"/>
     </row>
@@ -1122,7 +1119,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1161,7 +1158,7 @@
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1177,7 +1174,7 @@
     <row r="28" spans="1:12" customHeight="1" ht="15.75">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1208,11 +1205,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
       <c r="C30" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1232,7 +1229,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1262,7 +1259,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1278,7 +1275,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1287,7 +1284,7 @@
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1302,7 +1299,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1511,18 +1508,18 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="11"/>
       <c r="I56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L56" s="14"/>
     </row>
@@ -1547,18 +1544,18 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L58" s="14"/>
     </row>
@@ -1600,7 +1597,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -1639,7 +1636,7 @@
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1655,7 +1652,7 @@
     <row r="65" spans="1:12" customHeight="1" ht="15.75">
       <c r="A65" s="1"/>
       <c r="B65" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1686,11 +1683,11 @@
       <c r="A67" s="1"/>
       <c r="B67" s="12"/>
       <c r="C67" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1710,7 +1707,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -1740,7 +1737,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -1756,7 +1753,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -1765,7 +1762,7 @@
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$M$72</definedName>
+  </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -44,13 +46,13 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-007</t>
+    <t>2020-009</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>May 04, 2020</t>
+    <t>May 07, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
@@ -59,34 +61,34 @@
     <t>Christian Paul  Ferrer</t>
   </si>
   <si>
-    <t xml:space="preserve">to leave the office for the following </t>
-  </si>
-  <si>
-    <t>purpose (s).</t>
-  </si>
-  <si>
-    <t>RO</t>
+    <t>to leave the office for the following  purpose (s):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A B   </t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
+    <t xml:space="preserve">C D   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>May 01, 2020</t>
+    <t>8:08 AM</t>
   </si>
   <si>
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>18:00:00</t>
+    <t>5:05 AM</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
+  </si>
+  <si>
+    <t>______________________________</t>
   </si>
   <si>
     <t xml:space="preserve">Employee(s) to perform official function and claim for </t>
@@ -121,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -143,15 +145,6 @@
     <font>
       <b val="1"/>
       <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Sylfaen"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="10"/>
@@ -182,7 +175,25 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF595959"/>
+      <name val="Sylfaen"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Sylfaen"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Sylfaen"/>
     </font>
   </fonts>
@@ -206,57 +217,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,13 +302,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1009650" cy="1009650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="1" name="Picture 6" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -303,13 +332,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1247775" cy="885825"/>
+    <xdr:ext cx="1238250" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 7" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -333,13 +362,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1009650" cy="1009650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 6" descr=""/>
+        <xdr:cNvPr id="3" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -363,13 +392,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1247775" cy="885825"/>
+    <xdr:ext cx="1238250" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 7" descr=""/>
+        <xdr:cNvPr id="4" name="Picture 3" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -806,7 +835,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I70" sqref="I70"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,96 +843,96 @@
     <col min="2" max="2" width="10.7109375" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.140625" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.140625" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.42578125" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.28515625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.42578125" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.140625" customWidth="true" style="0"/>
     <col min="8" max="8" width="3.140625" customWidth="true" style="0"/>
     <col min="9" max="9" width="9.140625" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.140625" customWidth="true" style="0"/>
-    <col min="11" max="11" width="9.140625" customWidth="true" style="0"/>
-    <col min="12" max="12" width="13.42578125" customWidth="true" style="0"/>
+    <col min="11" max="11" width="16.140625" customWidth="true" style="0"/>
+    <col min="12" max="12" width="0.140625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
       <c r="B2"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -916,13 +945,13 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" customHeight="1" ht="15.75">
@@ -934,13 +963,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" customHeight="1" ht="15.75">
@@ -973,415 +1002,413 @@
     </row>
     <row r="16" spans="1:12" customHeight="1" ht="15.75">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="14" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="1" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="H16" s="11"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" customHeight="1" ht="15.75">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" customHeight="1" ht="15.75">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" customHeight="1" ht="15.75">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="14" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" customHeight="1" ht="15.75">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" customHeight="1" ht="15.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="4"/>
+      <c r="K21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="14"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" customHeight="1" ht="15.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" customHeight="1" ht="15.75">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" customHeight="1" ht="15.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" customHeight="1" ht="15.75">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" customHeight="1" ht="15.75">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" customHeight="1" ht="15.75">
       <c r="A28" s="1"/>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" customHeight="1" ht="15.75">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" customHeight="1" ht="15.75">
       <c r="A30" s="1"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" customHeight="1" ht="15.75">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="4" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" customHeight="1" ht="15.75">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" customHeight="1" ht="15.75">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="4" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" customHeight="1" ht="15.75">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="B39"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="9" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="9" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="9" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="9" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1394,13 +1421,13 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="16" t="s">
+      <c r="J49" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="16"/>
+      <c r="K49" s="18"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" customHeight="1" ht="15.75">
@@ -1412,13 +1439,13 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="14" t="s">
+      <c r="J50" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="14"/>
+      <c r="K50" s="17"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" customHeight="1" ht="15.75">
@@ -1451,355 +1478,355 @@
     </row>
     <row r="53" spans="1:12" customHeight="1" ht="15.75">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="14" t="s">
+      <c r="D53" s="4"/>
+      <c r="E53" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="1" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
+      <c r="H53" s="11"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" customHeight="1" ht="15.75">
       <c r="A54" s="1"/>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="11"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" customHeight="1" ht="15.75">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" customHeight="1" ht="15.75">
       <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="14" t="s">
+      <c r="J56" s="4"/>
+      <c r="K56" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="14"/>
+      <c r="L56" s="20"/>
     </row>
     <row r="57" spans="1:12" customHeight="1" ht="15.75">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" customHeight="1" ht="15.75">
       <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="14" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="4"/>
+      <c r="K58" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="1"/>
-      <c r="K58" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="14"/>
+      <c r="L58" s="20"/>
     </row>
     <row r="59" spans="1:12" customHeight="1" ht="15.75">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" customHeight="1" ht="15.75">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" customHeight="1" ht="15.75">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" customHeight="1" ht="15.75">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" customHeight="1" ht="15.75">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12" customHeight="1" ht="15.75">
       <c r="A65" s="1"/>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" customHeight="1" ht="15.75">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" customHeight="1" ht="15.75">
       <c r="A67" s="1"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="14"/>
+      <c r="C67" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="10" t="s">
+      <c r="D67" s="14"/>
+      <c r="E67" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" customHeight="1" ht="15.75">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="4" t="s">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:12" customHeight="1" ht="15.75">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
     </row>
     <row r="70" spans="1:12" customHeight="1" ht="15.75">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="4" t="s">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" customHeight="1" ht="15.75">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
     </row>
   </sheetData>
   <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I69:L69"/>
     <mergeCell ref="I63:L63"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="K58:L58"/>
     <mergeCell ref="I26:L26"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="C54:H54"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="68" fitToHeight="1" fitToWidth="0"/>
+  <pageMargins left="0.39370078740157" right="0.39370078740157" top="0.39370078740157" bottom="0.39370078740157" header="0.39370078740157" footer="0.39370078740157"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="72" fitToHeight="1" fitToWidth="0"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,7 +46,7 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-009</t>
+    <t>2020-0011</t>
   </si>
   <si>
     <t>Date:</t>
@@ -64,13 +64,13 @@
     <t>to leave the office for the following  purpose (s):</t>
   </si>
   <si>
-    <t xml:space="preserve">A B   </t>
+    <t xml:space="preserve">zxzxz zxzxzx </t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
-    <t xml:space="preserve">C D   </t>
+    <t xml:space="preserve">zxzx zxz </t>
   </si>
   <si>
     <t xml:space="preserve">Time of Departure: </t>
@@ -79,10 +79,13 @@
     <t>8:08 AM</t>
   </si>
   <si>
+    <t>May 26, 2020</t>
+  </si>
+  <si>
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>5:05 AM</t>
+    <t>1:01 PM</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -109,7 +112,7 @@
     <t>Dr. Carina S. Cruz</t>
   </si>
   <si>
-    <t>CAO/FAD-Chief</t>
+    <t>Chief, FAD</t>
   </si>
   <si>
     <t>Copy for Personnel Section, FAD</t>
@@ -1091,18 +1094,18 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21" s="20"/>
     </row>
@@ -1144,7 +1147,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1174,7 +1177,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -1183,7 +1186,7 @@
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
       <c r="B27" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1199,7 +1202,7 @@
     <row r="28" spans="1:12" customHeight="1" ht="15.75">
       <c r="A28" s="1"/>
       <c r="B28" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1230,11 +1233,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1254,7 +1257,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1270,7 +1273,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -1286,7 +1289,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
@@ -1302,7 +1305,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
@@ -1311,7 +1314,7 @@
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1326,7 +1329,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1565,18 +1568,18 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L58" s="20"/>
     </row>
@@ -1618,7 +1621,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -1648,7 +1651,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -1657,7 +1660,7 @@
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
       <c r="B64" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1673,7 +1676,7 @@
     <row r="65" spans="1:12" customHeight="1" ht="15.75">
       <c r="A65" s="1"/>
       <c r="B65" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1704,11 +1707,11 @@
       <c r="A67" s="1"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -1728,7 +1731,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -1744,7 +1747,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -1760,7 +1763,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
@@ -1776,7 +1779,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
@@ -1785,7 +1788,7 @@
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,31 +46,31 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-0011</t>
+    <t>2020-0019</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>May 07, 2020</t>
+    <t>May 12, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
   </si>
   <si>
-    <t>Christian Paul  Ferrer</t>
+    <t>Christian Paul V Ferrer</t>
   </si>
   <si>
     <t>to leave the office for the following  purpose (s):</t>
   </si>
   <si>
-    <t xml:space="preserve">zxzxz zxzxzx </t>
+    <t xml:space="preserve">1 </t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
-    <t xml:space="preserve">zxzx zxz </t>
+    <t>1 1</t>
   </si>
   <si>
     <t xml:space="preserve">Time of Departure: </t>
@@ -79,15 +79,9 @@
     <t>8:08 AM</t>
   </si>
   <si>
-    <t>May 26, 2020</t>
-  </si>
-  <si>
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>1:01 PM</t>
-  </si>
-  <si>
     <t>Signature of Requesting Employee (s)</t>
   </si>
   <si>
@@ -107,12 +101,6 @@
   </si>
   <si>
     <t>Approved:</t>
-  </si>
-  <si>
-    <t>Dr. Carina S. Cruz</t>
-  </si>
-  <si>
-    <t>Chief, FAD</t>
   </si>
   <si>
     <t>Copy for Personnel Section, FAD</t>
@@ -1094,18 +1082,18 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="20" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L21" s="20"/>
     </row>
@@ -1147,7 +1135,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1177,7 +1165,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -1186,7 +1174,7 @@
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
       <c r="B27" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1202,7 +1190,7 @@
     <row r="28" spans="1:12" customHeight="1" ht="15.75">
       <c r="A28" s="1"/>
       <c r="B28" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1233,11 +1221,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1257,7 +1245,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1273,7 +1261,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -1288,9 +1276,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="4"/>
@@ -1304,9 +1290,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="4"/>
@@ -1314,7 +1298,7 @@
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1329,7 +1313,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1568,18 +1552,18 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="20" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L58" s="20"/>
     </row>
@@ -1621,7 +1605,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -1651,7 +1635,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -1660,7 +1644,7 @@
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
       <c r="B64" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1676,7 +1660,7 @@
     <row r="65" spans="1:12" customHeight="1" ht="15.75">
       <c r="A65" s="1"/>
       <c r="B65" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1707,11 +1691,11 @@
       <c r="A67" s="1"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -1731,7 +1715,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -1747,7 +1731,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -1762,9 +1746,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
       <c r="L70" s="4"/>
@@ -1778,9 +1760,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
       <c r="L71" s="4"/>
@@ -1788,7 +1768,7 @@
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -46,7 +46,7 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-0019</t>
+    <t>2020-020</t>
   </si>
   <si>
     <t>Date:</t>
@@ -64,22 +64,22 @@
     <t>to leave the office for the following  purpose (s):</t>
   </si>
   <si>
-    <t xml:space="preserve">1 </t>
+    <t xml:space="preserve">aaa  </t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
-    <t>1 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
-    <t>8:08 AM</t>
+    <t>9:09 AM</t>
   </si>
   <si>
     <t>Time of Return:</t>
+  </si>
+  <si>
+    <t>5:05 PM</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -1046,18 +1046,18 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="11"/>
       <c r="I19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19" s="20"/>
     </row>
@@ -1089,11 +1089,11 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21" s="20"/>
     </row>
@@ -1516,18 +1516,18 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
       <c r="H56" s="11"/>
       <c r="I56" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L56" s="20"/>
     </row>
@@ -1559,11 +1559,11 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L58" s="20"/>
     </row>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -46,7 +46,7 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-020</t>
+    <t>2020-0019</t>
   </si>
   <si>
     <t>Date:</t>
@@ -64,22 +64,22 @@
     <t>to leave the office for the following  purpose (s):</t>
   </si>
   <si>
-    <t xml:space="preserve">aaa  </t>
+    <t xml:space="preserve">1 </t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
+    <t>1 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
-    <t>9:09 AM</t>
+    <t>8:08 AM</t>
   </si>
   <si>
     <t>Time of Return:</t>
-  </si>
-  <si>
-    <t>5:05 PM</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -1046,18 +1046,18 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="11"/>
       <c r="I19" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L19" s="20"/>
     </row>
@@ -1089,11 +1089,11 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="20"/>
     </row>
@@ -1516,18 +1516,18 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
       <c r="H56" s="11"/>
       <c r="I56" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L56" s="20"/>
     </row>
@@ -1559,11 +1559,11 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L58" s="20"/>
     </row>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -34,7 +34,7 @@
     <t>City of Calamba, Laguna</t>
   </si>
   <si>
-    <t>Tel: (049)8274755/(049)8274587/(049)8274560 •  Fax: (049) 8274745</t>
+    <t>Tel: (049) 827-4587; (049) 827-4560; (049) 827-3143</t>
   </si>
   <si>
     <t>Email: dilgcalabarzon@yahoo.com   •  Website: www.calabarzon.dilg.gov.ph</t>
@@ -46,13 +46,13 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-0019</t>
+    <t>2020-011</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>May 12, 2020</t>
+    <t>May 14, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
@@ -64,15 +64,12 @@
     <t>to leave the office for the following  purpose (s):</t>
   </si>
   <si>
-    <t xml:space="preserve">1 </t>
+    <t>11 11</t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
-    <t>1 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
@@ -82,6 +79,9 @@
     <t>Time of Return:</t>
   </si>
   <si>
+    <t>5:05 PM</t>
+  </si>
+  <si>
     <t>Signature of Requesting Employee (s)</t>
   </si>
   <si>
@@ -103,10 +103,19 @@
     <t>Approved:</t>
   </si>
   <si>
+    <t>Noel R. Bartolabac</t>
+  </si>
+  <si>
+    <t>ASST. REGIONAL DIRECTOR</t>
+  </si>
+  <si>
     <t>Copy for Personnel Section, FAD</t>
   </si>
   <si>
     <t>------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Dr. Carina S. Cruz</t>
   </si>
 </sst>
 </file>
@@ -208,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -234,49 +243,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,7 +838,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -939,10 +951,10 @@
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" customHeight="1" ht="15.75">
@@ -957,10 +969,10 @@
       <c r="I13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" customHeight="1" ht="15.75">
@@ -997,32 +1009,32 @@
         <v>12</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="9"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" customHeight="1" ht="15.75">
+    <row r="17" spans="1:12" customHeight="1" ht="24.75">
       <c r="A17" s="1"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" customHeight="1" ht="15.75">
@@ -1045,21 +1057,21 @@
         <v>16</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:12" customHeight="1" ht="15.75">
       <c r="A20" s="1"/>
@@ -1081,21 +1093,21 @@
         <v>10</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:12" customHeight="1" ht="15.75">
       <c r="A22" s="1"/>
@@ -1164,16 +1176,16 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="4"/>
@@ -1189,7 +1201,7 @@
     </row>
     <row r="28" spans="1:12" customHeight="1" ht="15.75">
       <c r="A28" s="1"/>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="4"/>
@@ -1219,12 +1231,12 @@
     </row>
     <row r="30" spans="1:12" customHeight="1" ht="15.75">
       <c r="A30" s="1"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="4"/>
@@ -1244,7 +1256,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J31" s="4"/>
@@ -1260,12 +1272,12 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="1:12" customHeight="1" ht="15.75">
       <c r="A33" s="1"/>
@@ -1276,9 +1288,11 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
+      <c r="I33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" customHeight="1" ht="15.75">
@@ -1290,15 +1304,17 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="I34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="16" t="s">
-        <v>28</v>
+      <c r="B35" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1313,7 +1329,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1411,10 +1427,10 @@
       <c r="I49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="18" t="s">
+      <c r="J49" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="18"/>
+      <c r="K49" s="17"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" customHeight="1" ht="15.75">
@@ -1429,10 +1445,10 @@
       <c r="I50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="J50" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="17"/>
+      <c r="K50" s="18"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" customHeight="1" ht="15.75">
@@ -1469,41 +1485,43 @@
         <v>12</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="11"/>
+      <c r="H53" s="9"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" customHeight="1" ht="15.75">
+    <row r="54" spans="1:12" customHeight="1" ht="23.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="11"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" customHeight="1" ht="15.75">
       <c r="A55" s="1"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -1515,34 +1533,34 @@
         <v>16</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="4"/>
+      <c r="K56" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J56" s="4"/>
-      <c r="K56" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L56" s="20"/>
+      <c r="L56" s="22"/>
     </row>
     <row r="57" spans="1:12" customHeight="1" ht="15.75">
       <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" customHeight="1" ht="15.75">
@@ -1551,21 +1569,21 @@
         <v>10</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L58" s="20"/>
+      <c r="L58" s="22"/>
     </row>
     <row r="59" spans="1:12" customHeight="1" ht="15.75">
       <c r="A59" s="1"/>
@@ -1634,16 +1652,16 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="8" t="s">
+      <c r="I63" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
     </row>
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="4"/>
@@ -1659,7 +1677,7 @@
     </row>
     <row r="65" spans="1:12" customHeight="1" ht="15.75">
       <c r="A65" s="1"/>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="4"/>
@@ -1689,12 +1707,12 @@
     </row>
     <row r="67" spans="1:12" customHeight="1" ht="15.75">
       <c r="A67" s="1"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="15" t="s">
+      <c r="B67" s="12"/>
+      <c r="C67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="12"/>
+      <c r="E67" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F67" s="4"/>
@@ -1714,7 +1732,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="13" t="s">
+      <c r="I68" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J68" s="4"/>
@@ -1730,12 +1748,12 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="8" t="s">
+      <c r="I69" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
     </row>
     <row r="70" spans="1:12" customHeight="1" ht="15.75">
       <c r="A70" s="1"/>
@@ -1746,9 +1764,11 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
+      <c r="I70" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" customHeight="1" ht="15.75">
@@ -1760,15 +1780,17 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
+      <c r="I71" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
-      <c r="B72" s="16" t="s">
-        <v>28</v>
+      <c r="B72" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -1776,7 +1798,9 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+      <c r="I72" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -1784,13 +1808,6 @@
   </sheetData>
   <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C17:H17"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="I69:L69"/>
@@ -1806,10 +1823,19 @@
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B54:K54"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.39370078740157" right="0.39370078740157" top="0.39370078740157" bottom="0.39370078740157" header="0.39370078740157" footer="0.39370078740157"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="72" fitToHeight="1" fitToWidth="0"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="71" fitToHeight="1" fitToWidth="0"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,30 +46,33 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-011</t>
+    <t>2020-008</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>May 14, 2020</t>
+    <t>May 08, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
   </si>
   <si>
-    <t>Christian Paul V Ferrer</t>
+    <t>Christian Paul  Ferrer</t>
   </si>
   <si>
     <t>to leave the office for the following  purpose (s):</t>
   </si>
   <si>
-    <t>11 11</t>
+    <t xml:space="preserve">Test </t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
+    <t xml:space="preserve">Tagaytay </t>
+  </si>
+  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
@@ -103,19 +106,10 @@
     <t>Approved:</t>
   </si>
   <si>
-    <t>Noel R. Bartolabac</t>
-  </si>
-  <si>
-    <t>ASST. REGIONAL DIRECTOR</t>
-  </si>
-  <si>
     <t>Copy for Personnel Section, FAD</t>
   </si>
   <si>
     <t>------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>Dr. Carina S. Cruz</t>
   </si>
 </sst>
 </file>
@@ -1058,18 +1052,18 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="9"/>
       <c r="I19" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L19" s="22"/>
     </row>
@@ -1101,11 +1095,11 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" s="22"/>
     </row>
@@ -1147,7 +1141,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1177,7 +1171,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -1186,7 +1180,7 @@
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
       <c r="B27" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1202,7 +1196,7 @@
     <row r="28" spans="1:12" customHeight="1" ht="15.75">
       <c r="A28" s="1"/>
       <c r="B28" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1233,11 +1227,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1257,7 +1251,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1273,7 +1267,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
@@ -1288,9 +1282,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="4"/>
@@ -1304,9 +1296,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="4"/>
@@ -1314,7 +1304,7 @@
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
       <c r="B35" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1329,7 +1319,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1534,18 +1524,18 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="9"/>
       <c r="I56" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L56" s="22"/>
     </row>
@@ -1577,11 +1567,11 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L58" s="22"/>
     </row>
@@ -1623,7 +1613,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -1653,7 +1643,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
@@ -1662,7 +1652,7 @@
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
       <c r="B64" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1678,7 +1668,7 @@
     <row r="65" spans="1:12" customHeight="1" ht="15.75">
       <c r="A65" s="1"/>
       <c r="B65" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1709,11 +1699,11 @@
       <c r="A67" s="1"/>
       <c r="B67" s="12"/>
       <c r="C67" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -1733,7 +1723,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -1749,7 +1739,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
@@ -1764,9 +1754,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="4"/>
@@ -1780,9 +1768,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I71" s="16"/>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
       <c r="L71" s="4"/>
@@ -1790,7 +1776,7 @@
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
       <c r="B72" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -1798,9 +1784,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,37 +46,37 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-008</t>
+    <t>2020-021</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>May 08, 2020</t>
+    <t>May 12, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
   </si>
   <si>
-    <t>Christian Paul  Ferrer</t>
+    <t>Christian Paul V Ferrer</t>
   </si>
   <si>
     <t>to leave the office for the following  purpose (s):</t>
   </si>
   <si>
-    <t xml:space="preserve">Test </t>
+    <t xml:space="preserve">AAA </t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
-    <t xml:space="preserve">Tagaytay </t>
-  </si>
-  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
-    <t>8:08 AM</t>
+    <t>7:07 AM</t>
+  </si>
+  <si>
+    <t>May 14, 2020</t>
   </si>
   <si>
     <t>Time of Return:</t>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Approved:</t>
+  </si>
+  <si>
+    <t>Dr. Carina S. Cruz</t>
+  </si>
+  <si>
+    <t>Chief, FAD</t>
   </si>
   <si>
     <t>Copy for Personnel Section, FAD</t>
@@ -1052,18 +1058,18 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="9"/>
       <c r="I19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19" s="22"/>
     </row>
@@ -1088,7 +1094,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="22" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -1282,7 +1288,9 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="15"/>
+      <c r="I33" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="4"/>
@@ -1296,7 +1304,9 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="16"/>
+      <c r="I34" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="4"/>
@@ -1304,7 +1314,7 @@
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
       <c r="B35" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1319,7 +1329,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1524,18 +1534,18 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="9"/>
       <c r="I56" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L56" s="22"/>
     </row>
@@ -1560,7 +1570,7 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="22" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -1754,7 +1764,9 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="15"/>
+      <c r="I70" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="4"/>
@@ -1768,7 +1780,9 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="16"/>
+      <c r="I71" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
       <c r="L71" s="4"/>
@@ -1776,7 +1790,7 @@
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
       <c r="B72" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -46,43 +46,43 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-021</t>
+    <t>2020-0017</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>May 12, 2020</t>
+    <t>May 08, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
   </si>
   <si>
-    <t>Christian Paul V Ferrer</t>
+    <t>Christian Paul  Ferrer</t>
   </si>
   <si>
     <t>to leave the office for the following  purpose (s):</t>
   </si>
   <si>
-    <t xml:space="preserve">AAA </t>
+    <t>asasas asasasas</t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
+    <t>asasasa asas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
-    <t>7:07 AM</t>
-  </si>
-  <si>
-    <t>May 14, 2020</t>
+    <t>8:08 AM</t>
   </si>
   <si>
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>5:05 PM</t>
+    <t>6:06 PM</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -1058,18 +1058,18 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="9"/>
       <c r="I19" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L19" s="22"/>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -1534,18 +1534,18 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="9"/>
       <c r="I56" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L56" s="22"/>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>

--- a/ob_export.xlsx
+++ b/ob_export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,7 +46,7 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-0017</t>
+    <t>2020-0016</t>
   </si>
   <si>
     <t>Date:</t>
@@ -64,15 +64,12 @@
     <t>to leave the office for the following  purpose (s):</t>
   </si>
   <si>
-    <t>asasas asasasas</t>
+    <t>asasa asas</t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
-    <t>asasasa asas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
@@ -82,7 +79,7 @@
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>6:06 PM</t>
+    <t>5:05 PM</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -1058,18 +1055,18 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="9"/>
       <c r="I19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19" s="22"/>
     </row>
@@ -1101,11 +1098,11 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L21" s="22"/>
     </row>
@@ -1147,7 +1144,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1177,7 +1174,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -1186,7 +1183,7 @@
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
       <c r="B27" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1202,7 +1199,7 @@
     <row r="28" spans="1:12" customHeight="1" ht="15.75">
       <c r="A28" s="1"/>
       <c r="B28" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1233,11 +1230,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1257,7 +1254,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1273,7 +1270,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
@@ -1289,7 +1286,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
@@ -1305,7 +1302,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
@@ -1314,7 +1311,7 @@
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
       <c r="B35" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1329,7 +1326,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1534,18 +1531,18 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="9"/>
       <c r="I56" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L56" s="22"/>
     </row>
@@ -1577,11 +1574,11 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L58" s="22"/>
     </row>
@@ -1623,7 +1620,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -1653,7 +1650,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
@@ -1662,7 +1659,7 @@
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
       <c r="B64" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1678,7 +1675,7 @@
     <row r="65" spans="1:12" customHeight="1" ht="15.75">
       <c r="A65" s="1"/>
       <c r="B65" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1709,11 +1706,11 @@
       <c r="A67" s="1"/>
       <c r="B67" s="12"/>
       <c r="C67" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -1733,7 +1730,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -1749,7 +1746,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
@@ -1765,7 +1762,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
@@ -1781,7 +1778,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
@@ -1790,7 +1787,7 @@
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
       <c r="B72" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
